--- a/app/upload_file/admin_дляпарсинг_(6).xlsx
+++ b/app/upload_file/admin_дляпарсинг_(6).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\._programming\emex_autosturktura\app\upload_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FE8CA3-A048-4ABB-BD05-B85D6E8D55AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10860" windowHeight="6345"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -92,7 +93,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -427,19 +428,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K217"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A20" sqref="A9:G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="11" width="17.28515625" customWidth="1"/>
+    <col min="1" max="11" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,7 +475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>82026</v>
       </c>
@@ -501,7 +502,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
@@ -528,7 +529,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>362312</v>
       </c>
@@ -555,7 +556,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -582,7 +583,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -609,7 +610,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -636,7 +637,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>6270000290</v>
       </c>
@@ -663,7 +664,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="2"/>
@@ -676,7 +677,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
@@ -689,7 +690,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="3"/>
       <c r="C11" s="2"/>
@@ -697,7 +698,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="2"/>
@@ -706,7 +707,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
@@ -715,7 +716,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="2"/>
@@ -724,7 +725,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="2"/>
@@ -733,7 +734,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="2"/>
@@ -742,7 +743,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="2"/>
@@ -751,7 +752,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="2"/>
@@ -760,7 +761,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="2"/>
@@ -769,7 +770,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="2"/>
@@ -778,7 +779,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -787,7 +788,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -796,7 +797,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -805,7 +806,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -814,7 +815,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -823,7 +824,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -832,7 +833,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -841,7 +842,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -850,7 +851,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -859,7 +860,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -868,7 +869,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -877,7 +878,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -886,7 +887,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -895,7 +896,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -904,7 +905,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -913,7 +914,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -922,7 +923,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -931,7 +932,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -940,7 +941,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -949,7 +950,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -958,7 +959,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -967,7 +968,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -976,7 +977,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -985,7 +986,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -994,7 +995,7 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1003,7 +1004,7 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1012,7 +1013,7 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1021,7 +1022,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1030,7 +1031,7 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1039,7 +1040,7 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1048,7 +1049,7 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1057,7 +1058,7 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1066,7 +1067,7 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1075,7 +1076,7 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1084,7 +1085,7 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1093,7 +1094,7 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1102,7 +1103,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1111,7 +1112,7 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -1120,7 +1121,7 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1129,7 +1130,7 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1138,7 +1139,7 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1147,7 +1148,7 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1156,7 +1157,7 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1165,7 +1166,7 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1174,7 +1175,7 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1183,7 +1184,7 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1192,7 +1193,7 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1201,7 +1202,7 @@
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1210,7 +1211,7 @@
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1219,7 +1220,7 @@
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1228,7 +1229,7 @@
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1237,7 +1238,7 @@
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -1246,7 +1247,7 @@
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -1255,7 +1256,7 @@
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1264,7 +1265,7 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1273,7 +1274,7 @@
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -1282,7 +1283,7 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -1291,7 +1292,7 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -1300,7 +1301,7 @@
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -1309,7 +1310,7 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -1318,7 +1319,7 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -1327,7 +1328,7 @@
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -1336,7 +1337,7 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -1345,7 +1346,7 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -1354,7 +1355,7 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -1363,7 +1364,7 @@
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -1372,7 +1373,7 @@
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -1381,7 +1382,7 @@
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -1390,7 +1391,7 @@
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -1399,7 +1400,7 @@
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -1408,7 +1409,7 @@
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -1417,7 +1418,7 @@
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -1426,7 +1427,7 @@
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -1435,7 +1436,7 @@
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -1444,7 +1445,7 @@
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -1453,7 +1454,7 @@
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -1462,7 +1463,7 @@
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -1471,7 +1472,7 @@
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -1480,7 +1481,7 @@
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -1489,7 +1490,7 @@
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -1498,7 +1499,7 @@
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -1507,7 +1508,7 @@
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -1516,7 +1517,7 @@
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -1525,7 +1526,7 @@
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -1534,7 +1535,7 @@
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -1543,7 +1544,7 @@
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -1552,7 +1553,7 @@
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -1561,7 +1562,7 @@
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -1570,7 +1571,7 @@
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -1579,7 +1580,7 @@
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -1588,7 +1589,7 @@
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -1597,7 +1598,7 @@
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -1606,7 +1607,7 @@
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -1615,7 +1616,7 @@
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -1624,7 +1625,7 @@
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -1633,7 +1634,7 @@
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -1642,7 +1643,7 @@
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -1651,7 +1652,7 @@
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -1660,7 +1661,7 @@
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -1669,7 +1670,7 @@
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -1678,7 +1679,7 @@
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -1687,7 +1688,7 @@
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -1696,7 +1697,7 @@
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -1705,7 +1706,7 @@
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -1714,7 +1715,7 @@
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -1723,7 +1724,7 @@
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -1732,7 +1733,7 @@
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -1741,7 +1742,7 @@
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -1750,7 +1751,7 @@
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -1759,7 +1760,7 @@
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -1768,7 +1769,7 @@
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -1777,7 +1778,7 @@
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -1786,7 +1787,7 @@
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -1795,7 +1796,7 @@
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -1804,7 +1805,7 @@
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -1813,7 +1814,7 @@
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -1822,7 +1823,7 @@
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -1831,7 +1832,7 @@
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -1840,7 +1841,7 @@
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -1849,7 +1850,7 @@
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -1858,7 +1859,7 @@
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -1867,7 +1868,7 @@
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -1876,7 +1877,7 @@
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -1885,7 +1886,7 @@
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -1894,7 +1895,7 @@
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -1903,7 +1904,7 @@
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -1912,7 +1913,7 @@
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -1921,7 +1922,7 @@
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -1930,7 +1931,7 @@
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -1939,7 +1940,7 @@
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -1948,7 +1949,7 @@
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -1957,7 +1958,7 @@
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -1966,7 +1967,7 @@
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -1975,7 +1976,7 @@
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -1984,7 +1985,7 @@
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -1993,7 +1994,7 @@
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -2002,7 +2003,7 @@
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -2011,7 +2012,7 @@
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -2020,7 +2021,7 @@
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -2029,7 +2030,7 @@
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -2038,7 +2039,7 @@
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -2047,7 +2048,7 @@
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -2056,7 +2057,7 @@
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -2065,7 +2066,7 @@
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -2074,7 +2075,7 @@
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -2083,7 +2084,7 @@
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -2092,7 +2093,7 @@
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -2101,7 +2102,7 @@
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -2110,7 +2111,7 @@
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -2119,7 +2120,7 @@
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -2128,7 +2129,7 @@
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -2137,7 +2138,7 @@
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -2146,7 +2147,7 @@
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -2155,7 +2156,7 @@
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -2164,7 +2165,7 @@
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -2173,7 +2174,7 @@
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -2182,7 +2183,7 @@
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -2191,7 +2192,7 @@
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -2200,7 +2201,7 @@
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -2209,7 +2210,7 @@
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -2218,7 +2219,7 @@
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -2227,7 +2228,7 @@
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -2236,7 +2237,7 @@
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -2245,7 +2246,7 @@
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -2254,7 +2255,7 @@
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -2263,7 +2264,7 @@
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -2272,7 +2273,7 @@
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -2281,7 +2282,7 @@
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -2290,7 +2291,7 @@
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -2299,7 +2300,7 @@
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -2308,7 +2309,7 @@
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -2317,7 +2318,7 @@
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -2326,7 +2327,7 @@
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -2335,7 +2336,7 @@
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -2344,7 +2345,7 @@
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -2353,7 +2354,7 @@
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -2362,7 +2363,7 @@
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -2371,7 +2372,7 @@
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -2380,7 +2381,7 @@
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -2389,7 +2390,7 @@
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -2398,7 +2399,7 @@
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -2407,7 +2408,7 @@
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -2416,7 +2417,7 @@
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -2425,7 +2426,7 @@
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -2434,7 +2435,7 @@
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -2443,7 +2444,7 @@
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -2452,7 +2453,7 @@
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -2461,7 +2462,7 @@
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -2470,7 +2471,7 @@
       <c r="F208" s="1"/>
       <c r="G208" s="1"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -2479,7 +2480,7 @@
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -2488,7 +2489,7 @@
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -2497,7 +2498,7 @@
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -2506,7 +2507,7 @@
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -2515,7 +2516,7 @@
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -2524,7 +2525,7 @@
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -2533,7 +2534,7 @@
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -2542,7 +2543,7 @@
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
